--- a/Instructions/Print Settings.xlsx
+++ b/Instructions/Print Settings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A69C78-4A61-49AC-ACB9-3171D2E5AAD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA304B61-5C30-4DF4-8077-D223D37318FE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>01 Housing Front</t>
   </si>
@@ -28,18 +28,6 @@
     <t>02 Housing Back</t>
   </si>
   <si>
-    <t>03 Fan Shroud 3015</t>
-  </si>
-  <si>
-    <t>04 Fan Shroud 3010</t>
-  </si>
-  <si>
-    <t>05 Fan Cover 2507</t>
-  </si>
-  <si>
-    <t>06 Fan Cover 2510</t>
-  </si>
-  <si>
     <t>11 Lever 1</t>
   </si>
   <si>
@@ -91,10 +79,13 @@
     <t>YES</t>
   </si>
   <si>
-    <t>部分/Partial</t>
-  </si>
-  <si>
     <t>外壁线数/Wall Line Count</t>
+  </si>
+  <si>
+    <t>03 Fan Shroud 3510</t>
+  </si>
+  <si>
+    <t>04 Fan Cover 3010</t>
   </si>
 </sst>
 </file>
@@ -450,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -467,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -475,19 +466,19 @@
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -495,14 +486,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.2</v>
+      </c>
       <c r="D4" s="6">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -510,162 +503,154 @@
         <v>1</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="6">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
@@ -682,23 +667,20 @@
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C11:C13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
